--- a/output/inference_results/test_sheets/batch_004/test_sheet (37).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (37).xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>umol/L2--25</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>umol/L2--25</t>
+          <t>2-25</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>umol/L0--5</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>umol/L0--5</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>umol/L0--20</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>umol/L0--20</t>
+          <t>0-20</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>62--85</t>
+          <t>62-85</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35--55</t>
+          <t>35-55</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20--40</t>
+          <t>20-40</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.2--2.4</t>
+          <t>1.2-2.4</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>前白蛋白</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>200--400</t>
+          <t>200-400</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7--40</t>
+          <t>7-40</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13--35</t>
+          <t>13-35</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35--135</t>
+          <t>35-135</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>谷氨酰转肽酶</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7--45</t>
+          <t>7-45</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>umol/L0--12</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>umol/L0--12</t>
+          <t>0-12</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4000--12000</t>
+          <t>4000-12000</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>mmol/L2.5--6.4</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>mmol/L2.5--6.4</t>
+          <t>2.5-6.4</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>umol/L40--97</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>umol/L40--97</t>
+          <t>40-97</t>
         </is>
       </c>
     </row>
@@ -871,19 +871,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>umol/1150--430</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>umol/1150--430</t>
+          <t>150-430</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cys0</t>
+          <t>Cys</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ng/L0--1.16</t>
+          <t>g/L</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ng/L0--1.16</t>
+          <t>0-1.16</t>
         </is>
       </c>
     </row>
@@ -925,24 +925,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mg/L25--70</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>mg/L25--70</t>
+          <t>25-70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C02</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>二氧化碳结合力</t>
+          <t>总二氧化碳</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>mmo1/120--30</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>mmo1/120--30</t>
+          <t>20-30</t>
         </is>
       </c>
     </row>
